--- a/code_01/output_v03.xlsx
+++ b/code_01/output_v03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Matlab\Algorithms\MultiRelay\woRelaySelection\ADMM\UF\UFIter_II\woConsensus_GitHub_II\UploadtoGitHub\code_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gtoxonfe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26535" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>K</t>
   </si>
@@ -167,7 +167,13 @@
     <t>B:\Matlab\Algorithms\MultiRelay\woRelaySelection\ADMM\UF\UFIter_II\woConsensus_GitHub_II\code_01\Results\MC50_MCT10\AI\v04\K4M8N8B8R4_MC50_T12R12_v04.zip</t>
   </si>
   <si>
-    <t>33 mins, 10.0 secs</t>
+    <t>Total Duration</t>
+  </si>
+  <si>
+    <t>Current Time</t>
+  </si>
+  <si>
+    <t>rhocF</t>
   </si>
 </sst>
 </file>
@@ -501,15 +507,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="AA2" sqref="AA2:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,13 +589,19 @@
         <v>16</v>
       </c>
       <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1">
+      <c r="AB1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -662,14 +674,14 @@
       <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -742,14 +754,14 @@
       <c r="X3" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -822,14 +834,14 @@
       <c r="X4" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>31</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -902,58 +914,58 @@
       <c r="X5" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5">
-        <v>43627.817604166667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y6" t="s">
+      <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA6" t="s">
         <v>18</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y7" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
         <v>19</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y8" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA8" t="s">
         <v>33</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y9" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA9" t="s">
         <v>20</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y10" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
         <v>21</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y11" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA11" t="s">
         <v>22</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>47</v>
       </c>
     </row>
